--- a/simulations/cleaned_inclusion_exclusion/Leenaars_2019 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Leenaars_2019 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,7 +713,7 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.1764705882352941</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.7995526496902959</v>
+        <v>0.9022711631108052</v>
       </c>
       <c r="I3">
-        <v>0.1033548190630868</v>
+        <v>0.003491854032380856</v>
       </c>
       <c r="J3">
-        <v>0.05882352941176471</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="K3">
-        <v>607.9411764705883</v>
+        <v>29.23529411764706</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -755,34 +755,34 @@
         <v>15</v>
       </c>
       <c r="Q3">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>582</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>584</v>
+        <v>4</v>
       </c>
       <c r="T3">
-        <v>596</v>
+        <v>17</v>
       </c>
       <c r="U3">
-        <v>614</v>
+        <v>40</v>
       </c>
       <c r="V3">
-        <v>5219</v>
+        <v>5795</v>
       </c>
       <c r="W3">
-        <v>5213</v>
+        <v>5794</v>
       </c>
       <c r="X3">
-        <v>5211</v>
+        <v>5791</v>
       </c>
       <c r="Y3">
-        <v>5199</v>
+        <v>5778</v>
       </c>
       <c r="Z3">
-        <v>5181</v>
+        <v>5755</v>
       </c>
       <c r="AA3">
         <v>16</v>
@@ -800,19 +800,19 @@
         <v>2</v>
       </c>
       <c r="AF3">
-        <v>0.900604</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.899569</v>
+        <v>0.999827</v>
       </c>
       <c r="AH3">
-        <v>0.899223</v>
+        <v>0.99931</v>
       </c>
       <c r="AI3">
-        <v>0.897153</v>
+        <v>0.997066</v>
       </c>
       <c r="AJ3">
-        <v>0.894047</v>
+        <v>0.993097</v>
       </c>
     </row>
   </sheetData>
